--- a/planning.xlsx
+++ b/planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\RoboJump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA13FC1E-B010-465E-A566-529CF47185D8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C301106E-5C08-488D-ACDA-F16E5C4ADB0C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{9E18255B-8462-4D91-8231-F056B8E1243A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Items</t>
+  </si>
+  <si>
+    <t>Level EndScreen</t>
+  </si>
+  <si>
+    <t>Level Menu</t>
+  </si>
+  <si>
+    <t>-Handle Level Completion</t>
+  </si>
+  <si>
+    <t>Steyrer</t>
   </si>
 </sst>
 </file>
@@ -173,8 +185,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E713316-6126-4109-96CD-E41E115FF8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F12" xr:uid="{2A8DBBF2-C766-484F-AE0A-E09112B39C70}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E713316-6126-4109-96CD-E41E115FF8A5}" name="Tabelle1" displayName="Tabelle1" ref="A1:F17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F17" xr:uid="{2A8DBBF2-C766-484F-AE0A-E09112B39C70}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5507E306-930E-4A45-B0DE-FC05CDD50603}" name="Task"/>
     <tableColumn id="2" xr3:uid="{C9EEC0FE-C3D9-43C3-B177-09F16814B7D4}" name="Orig. Est"/>
@@ -484,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED31F5F-1DB7-4AF9-ACD5-E7CBE0A50FDD}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -626,64 +638,50 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -700,8 +698,62 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
